--- a/Assets/Excel/ProjectExcel.xlsx
+++ b/Assets/Excel/ProjectExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\Documents\GitHub\EBS-Team-Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B10A0C-4FE6-4339-A1DE-289DC9E75D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA35E7B-2F71-4617-9FF9-0F5A0D28E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -50,12 +50,6 @@
     <t>button3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>꿈에 그리던 첫 자취생활이 시작됬다.</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>기분 탓일거야!</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>이제 혼자서 밥도 해먹고,</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>엄청 설렌다~</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>정리만 다하면 친구도 부르고 그럴텐데</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>일단 OT 나갈 준비도 해볼까?</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>안녕하십니까!</t>
   </si>
   <si>
@@ -113,30 +95,15 @@
     <t>나주희 입니다!</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>…어!?</t>
   </si>
   <si>
     <t>…나주희?</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>우....우욱</t>
   </si>
   <si>
@@ -155,18 +122,12 @@
     <t>야옹~</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>응? 고양이!?</t>
   </si>
   <si>
     <t>어딨지?</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>여기야!</t>
   </si>
   <si>
@@ -176,27 +137,18 @@
     <t>고양이가 말을 하잖아!!??</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>으아아… 내가 너무 마셨나보구나….</t>
   </si>
   <si>
     <t>진정해!</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>난 이상한 고양이가 아니라구~</t>
   </si>
   <si>
     <t>나는 너의 상상에서 태어난 고양이야</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>상….상?</t>
   </si>
   <si>
@@ -207,9 +159,6 @@
   </si>
   <si>
     <t>그… 그러면 다행이네</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>오늘 어땠어?</t>
@@ -405,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -663,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -694,14 +646,14 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -723,14 +675,14 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -752,14 +704,14 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -781,14 +733,14 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -810,14 +762,14 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -839,14 +791,14 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -868,14 +820,14 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -897,14 +849,14 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -926,14 +878,14 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -955,14 +907,14 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -984,14 +936,14 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1013,14 +965,14 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1042,14 +994,14 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1071,14 +1023,14 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1100,14 +1052,14 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1129,14 +1081,14 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
+      <c r="D17" s="5">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1158,14 +1110,14 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
+      <c r="D18" s="5">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5">
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1187,14 +1139,14 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
+      <c r="D19" s="5">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5">
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1216,14 +1168,14 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1245,14 +1197,14 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1274,14 +1226,14 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1303,14 +1255,14 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>35</v>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1332,14 +1284,14 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1361,14 +1313,14 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1390,14 +1342,14 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1419,14 +1371,14 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1448,14 +1400,14 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
+      <c r="D28" s="5">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1477,14 +1429,14 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1506,14 +1458,14 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1535,14 +1487,14 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>49</v>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1564,14 +1516,14 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
+      <c r="D32" s="5">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1593,14 +1545,14 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
+      <c r="D33" s="5">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1622,14 +1574,14 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
+      <c r="D34" s="5">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1651,14 +1603,14 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1680,14 +1632,14 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
+      <c r="D36" s="5">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1709,14 +1661,14 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
+      <c r="D37" s="5">
+        <v>19</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1738,14 +1690,14 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>35</v>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1767,14 +1719,14 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
+      <c r="D39" s="5">
+        <v>23</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1796,14 +1748,14 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
+      <c r="D40" s="5">
+        <v>23</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1825,14 +1777,14 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
+      <c r="D41" s="5">
+        <v>23</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1854,14 +1806,14 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
+      <c r="D42" s="5">
+        <v>23</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1883,14 +1835,14 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
+      <c r="D43" s="5">
+        <v>23</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1912,14 +1864,14 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
+      <c r="D44" s="5">
+        <v>23</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1941,14 +1893,14 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
+      <c r="D45" s="5">
+        <v>23</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1970,14 +1922,14 @@
       <c r="C46" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
+      <c r="D46" s="5">
+        <v>23</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -1999,14 +1951,14 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
+      <c r="D47" s="5">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2028,14 +1980,14 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>8</v>
+      <c r="D48" s="5">
+        <v>23</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2057,14 +2009,14 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
+      <c r="D49" s="5">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2086,14 +2038,14 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
+      <c r="D50" s="5">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2115,14 +2067,14 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
+      <c r="D51" s="5">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2144,14 +2096,14 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
+      <c r="D52" s="5">
+        <v>23</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2173,14 +2125,14 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
+      <c r="D53" s="5">
+        <v>23</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2202,14 +2154,14 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
+      <c r="D54" s="5">
+        <v>23</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2231,14 +2183,14 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="5">
+        <v>23</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2260,14 +2212,14 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>8</v>
+      <c r="D56" s="5">
+        <v>23</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2289,14 +2241,14 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
+      <c r="D57" s="5">
+        <v>23</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2318,14 +2270,14 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
+      <c r="D58" s="5">
+        <v>23</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2347,14 +2299,14 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5">
+        <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2376,14 +2328,14 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>8</v>
+      <c r="D60" s="5">
+        <v>18</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2405,14 +2357,14 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>35</v>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2434,14 +2386,14 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>35</v>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2463,14 +2415,14 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>55</v>
+      <c r="D63" s="5">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5">
+        <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2492,14 +2444,14 @@
       <c r="C64" s="3">
         <v>0</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>17</v>
+      <c r="D64" s="5">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5">
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2521,14 +2473,14 @@
       <c r="C65" s="3">
         <v>1</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>35</v>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5">
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2550,14 +2502,14 @@
       <c r="C66" s="3">
         <v>1</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>49</v>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>9</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2579,14 +2531,14 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>42</v>
+      <c r="D67" s="5">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5">
+        <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2608,14 +2560,14 @@
       <c r="C68" s="3">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>8</v>
+      <c r="D68" s="5">
+        <v>19</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2637,14 +2589,14 @@
       <c r="C69" s="3">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>8</v>
+      <c r="D69" s="5">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2666,14 +2618,14 @@
       <c r="C70" s="3">
         <v>1</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>35</v>
+      <c r="D70" s="5">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5">
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2695,14 +2647,14 @@
       <c r="C71" s="3">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>13</v>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5">
+        <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2724,14 +2676,14 @@
       <c r="C72" s="3">
         <v>1</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>8</v>
+      <c r="D72" s="5">
+        <v>18</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -2753,14 +2705,14 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>8</v>
+      <c r="D73" s="5">
+        <v>19</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -2782,14 +2734,14 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>8</v>
+      <c r="D74" s="5">
+        <v>18</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -2811,14 +2763,14 @@
       <c r="C75" s="3">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>17</v>
+      <c r="D75" s="5">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5">
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -2840,14 +2792,14 @@
       <c r="C76" s="3">
         <v>0</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>17</v>
+      <c r="D76" s="5">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5">
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -6575,7 +6527,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
@@ -7611,10 +7563,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -7622,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>

--- a/Assets/Excel/ProjectExcel.xlsx
+++ b/Assets/Excel/ProjectExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\Documents\GitHub\EBS-Team-Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA35E7B-2F71-4617-9FF9-0F5A0D28E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74408CD2-0F0C-42AE-8998-015C2A57557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -284,14 +284,53 @@
     <t>talkEvent</t>
   </si>
   <si>
-    <t>버튼 1</t>
-  </si>
-  <si>
     <t>next</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>npc1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -333,6 +372,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -370,8 +430,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -615,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -975,10 +1038,10 @@
         <v>18</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -7544,7 +7607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7573,14 +7638,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>85</v>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>1001001</v>
+        <v>1001004</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1"/>

--- a/Assets/Excel/ProjectExcel.xlsx
+++ b/Assets/Excel/ProjectExcel.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\Documents\GitHub\EBS-Team-Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74408CD2-0F0C-42AE-8998-015C2A57557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80051C73-3623-4F51-8B3E-8FDC90ABBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
-    <sheet name="Interaction" sheetId="2" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" r:id="rId3"/>
+    <sheet name="Event" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="K6qGjVCgnw2snQ6ahfDLjWPd92az/Cl0QgzudqYwLxI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="47VCXXpx4WKZ2koKnt3uaxnduvJRtcMQK6MzmanO0b0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +34,12 @@
     <t>keep</t>
   </si>
   <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>npc1</t>
+  </si>
+  <si>
     <t>npc2</t>
   </si>
   <si>
@@ -230,7 +235,7 @@
     <t>엥? 집? 집 같이 가는거야?</t>
   </si>
   <si>
-    <t>고양아!!</t>
+    <t>야옹아!!</t>
   </si>
   <si>
     <t>언제 간거야...</t>
@@ -248,7 +253,7 @@
     <t>고양아! 어떻게 들어온거야?!</t>
   </si>
   <si>
-    <t>헿헤~ 나는 네 상상동물이라니까?</t>
+    <t>헤헤~ 나는 네 상상동물이라니까?</t>
   </si>
   <si>
     <t>그러니까 이렇게 있지!</t>
@@ -275,7 +280,205 @@
     <t>( 책상에서 다이어리를 펴보자! )</t>
   </si>
   <si>
-    <t>test</t>
+    <t>으... 찌뿌둥해....</t>
+  </si>
+  <si>
+    <t>후! 그래도 첫날이니까 일찍 나가볼까?</t>
+  </si>
+  <si>
+    <t>빨리 나가면 그만큼 좋은 이미지가 될꺼야!</t>
+  </si>
+  <si>
+    <t>엇, 먼저 도착하신 분들이 있네!?</t>
+  </si>
+  <si>
+    <t>OT때 본 사람들이니까 말 걸어볼까?</t>
+  </si>
+  <si>
+    <t>힘들다... 시간이 늦었으니까 빨리 돌아가야겠어...</t>
+  </si>
+  <si>
+    <t>으... 오늘따라 더 무섭네....</t>
+  </si>
+  <si>
+    <t>야... 야옹아~?</t>
+  </si>
+  <si>
+    <t>너 분명 도와준다고 했잖아...~?</t>
+  </si>
+  <si>
+    <t>( 무서우니까 빨리 가자...! )</t>
+  </si>
+  <si>
+    <t>어..!? 야옹아!!</t>
+  </si>
+  <si>
+    <t>어...?</t>
+  </si>
+  <si>
+    <t>야...옹아?</t>
+  </si>
+  <si>
+    <t>저게... 무슨...</t>
+  </si>
+  <si>
+    <t>꺄아아아악!!!!!</t>
+  </si>
+  <si>
+    <t>자...잠시만</t>
+  </si>
+  <si>
+    <t>( 빨리... 빨리 도망쳐야해!!!! )</t>
+  </si>
+  <si>
+    <t>허억... 허억...</t>
+  </si>
+  <si>
+    <t>( 저게 뭐지...?! 뭔데 저렇게... 갑자기 쫓아오는거야..? )</t>
+  </si>
+  <si>
+    <t>주희야!!</t>
+  </si>
+  <si>
+    <t>야옹아...!</t>
+  </si>
+  <si>
+    <t>너 분명히 도와주러 오겠다고 하지 않았어?!</t>
+  </si>
+  <si>
+    <t>근데... 왜...</t>
+  </si>
+  <si>
+    <t>미안해... 하지만... 갈 수 없었어....</t>
+  </si>
+  <si>
+    <t>내가 만약 그곳을 가게 됬다면...</t>
+  </si>
+  <si>
+    <t>다신 볼 수 없었을 지도 몰라...</t>
+  </si>
+  <si>
+    <t>알겠어...</t>
+  </si>
+  <si>
+    <t>오늘 무슨 일이 있었는데?</t>
+  </si>
+  <si>
+    <t>오늘..........</t>
+  </si>
+  <si>
+    <t>아이고... 그렇구나...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">많이 고생했네... </t>
+  </si>
+  <si>
+    <t>오늘 못 가서 미안해...</t>
+  </si>
+  <si>
+    <t>아니야! 괜찮아!</t>
+  </si>
+  <si>
+    <t>덕분에 기분이 나아졌어</t>
+  </si>
+  <si>
+    <t>고마워!</t>
+  </si>
+  <si>
+    <t>( 오늘은 일찍 일기 쓰고 자자! )</t>
+  </si>
+  <si>
+    <t>나주희! 오랜만이다~?</t>
+  </si>
+  <si>
+    <t>엇... 혹시...</t>
+  </si>
+  <si>
+    <t>강제비?!</t>
+  </si>
+  <si>
+    <t>우와!! 진짜 오랜만이다~</t>
+  </si>
+  <si>
+    <t>여기서 다 만나네?</t>
+  </si>
+  <si>
+    <t>그래그래... 나야~</t>
+  </si>
+  <si>
+    <t>그리고 내 이름은 강세빈이란다?</t>
+  </si>
+  <si>
+    <t>아! 맞아 세빈!!</t>
+  </si>
+  <si>
+    <t>하도 별명으로 부르니까 헷갈렸네.</t>
+  </si>
+  <si>
+    <t>미안미안~</t>
+  </si>
+  <si>
+    <t>근데 진짜 오랜만이다... 얼마만이야?</t>
+  </si>
+  <si>
+    <t>음~ 적어도 2년? 그 정도네</t>
+  </si>
+  <si>
+    <t>와~ 그때 너 진짜 또라이였는데~</t>
+  </si>
+  <si>
+    <t>어...? 그... 그래?</t>
+  </si>
+  <si>
+    <t>( 혹시... 다 말하려는 건가...? 다른 분도 있는데...? )</t>
+  </si>
+  <si>
+    <t>맞지~ 어리긴 했어~</t>
+  </si>
+  <si>
+    <t>그래도 그땐 너 엄청 웃겼다?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런가? 기억이 안 나네... </t>
+  </si>
+  <si>
+    <t>너는 어떻게 지냈어?</t>
+  </si>
+  <si>
+    <t>나?!</t>
+  </si>
+  <si>
+    <t>나야 뭐, 옛날이랑 똑같지</t>
+  </si>
+  <si>
+    <t>잘 지내는 거같아서 좋네~</t>
+  </si>
+  <si>
+    <t>너도~</t>
+  </si>
+  <si>
+    <t>기왕에 일찍 왔으니까 조금 더 둘러봐~</t>
+  </si>
+  <si>
+    <t>나? 나 기억 안나는데?</t>
+  </si>
+  <si>
+    <t>어어? 기억이 안나?</t>
+  </si>
+  <si>
+    <t>너 옛날에 엄청 싸돌아 다녔거든?</t>
+  </si>
+  <si>
+    <t>너 그때 여자애들....</t>
+  </si>
+  <si>
+    <t>어어?? 말하지 마라? 나도 말한다?</t>
+  </si>
+  <si>
+    <t>난 옛날에 잘 지냈거든요~</t>
+  </si>
+  <si>
+    <t>아니야~ 너도 만만치 않았어!</t>
   </si>
   <si>
     <t>stressEvent</t>
@@ -284,61 +487,20 @@
     <t>talkEvent</t>
   </si>
   <si>
-    <t>next</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>에헤~ 그때는 너무 어렸지~</t>
+  </si>
+  <si>
+    <t>너도 만만치는 않았어~</t>
+  </si>
+  <si>
+    <t>너... 여기서말하면 나한테 죽는다...?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,34 +527,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -414,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -427,14 +561,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E145" sqref="D2:E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -663,7 +794,7 @@
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.08984375" customWidth="1"/>
     <col min="4" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="49.26953125" customWidth="1"/>
+    <col min="6" max="6" width="53.7265625" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="15.453125" customWidth="1"/>
@@ -677,26 +808,26 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -710,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -739,13 +870,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -768,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -797,13 +928,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -826,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -855,13 +986,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -884,13 +1015,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -913,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -942,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -971,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1000,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1029,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1058,13 +1189,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1087,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1116,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1151,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1180,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1209,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1232,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1261,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1290,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1319,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1348,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1383,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1406,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1435,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1470,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1493,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1522,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1551,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5">
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1586,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1615,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1644,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1667,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5">
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1702,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1731,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1754,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="5">
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1789,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1818,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1847,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1876,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1905,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1934,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1963,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1992,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2021,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2050,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2079,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2108,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2137,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2166,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2195,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2224,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2253,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2282,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2311,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2328,7 +2459,7 @@
         <v>1001230</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -2340,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2363,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2398,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2421,13 +2552,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2450,13 +2581,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5">
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2479,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5">
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2508,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D64" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="5">
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2537,13 +2668,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5">
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2566,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="5">
         <v>9</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2595,13 +2726,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2630,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2659,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2682,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5">
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2711,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2746,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -2775,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -2804,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -2827,13 +2958,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -2856,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -2875,338 +3006,2042 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="1">
+        <v>2001001</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="1">
+        <v>2001003</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="4:5" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
+        <v>2001004</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>2001005</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
+        <v>2001006</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
+        <v>2001007</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
+        <v>2001008</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>7</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
+        <v>2001009</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A86" s="1">
+        <v>2001010</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" s="1">
+        <v>2001011</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="1">
+        <v>2001012</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" s="1">
+        <v>2001013</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
+        <v>2001014</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>9</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>2001015</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" s="1">
+        <v>2001016</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
+        <v>23</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" s="1">
+        <v>2001017</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>23</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>2001018</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>23</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A95" s="1">
+        <v>2001019</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A96" s="1">
+        <v>2001020</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="1">
+        <v>2004001</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5">
+        <v>18</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A98" s="1">
+        <v>2001021</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>2001022</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="1">
+        <v>2001023</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="1">
+        <v>2004002</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5">
+        <v>17</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="1">
+        <v>2004003</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5">
+        <v>17</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="1">
+        <v>2004004</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>17</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A104" s="1">
+        <v>2001024</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>5</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" s="1">
+        <v>2004005</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5">
+        <v>17</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" s="1">
+        <v>2001025</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" s="1">
+        <v>2004006</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="5">
+        <v>17</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" s="1">
+        <v>2004007</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5">
+        <v>17</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="1">
+        <v>2004008</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5">
+        <v>17</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="1">
+        <v>2001026</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" s="1">
+        <v>2001027</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <v>6</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" s="1">
+        <v>2001028</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5">
+        <v>6</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" s="1">
+        <v>2001029</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" s="1">
+        <v>10201001</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="5">
+        <v>12</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A115" s="1">
+        <v>10201002</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2</v>
+      </c>
+      <c r="E115" s="5">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A116" s="1">
+        <v>10201003</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="5">
+        <v>2</v>
+      </c>
+      <c r="E116" s="5">
+        <v>6</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A117" s="1">
+        <v>10201004</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2</v>
+      </c>
+      <c r="E117" s="5">
+        <v>6</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A118" s="1">
+        <v>10201005</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2</v>
+      </c>
+      <c r="E118" s="5">
+        <v>6</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A119" s="1">
+        <v>10201006</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="5">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A120" s="1">
+        <v>10201007</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="5">
+        <v>12</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A121" s="1">
+        <v>10201008</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2</v>
+      </c>
+      <c r="E121" s="5">
+        <v>3</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A122" s="1">
+        <v>10201009</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A123" s="1">
+        <v>10201010</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2</v>
+      </c>
+      <c r="E123" s="5">
+        <v>6</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A124" s="1">
+        <v>10201011</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A125" s="1">
+        <v>10201012</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5">
+        <v>12</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A126" s="1">
+        <v>10201013</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="5">
+        <v>12</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A127" s="1">
+        <v>10201014</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="5">
+        <v>7</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A128" s="1">
+        <v>10201015</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5">
+        <v>7</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A129" s="1">
+        <v>10201016</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="5">
+        <v>12</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A130" s="1">
+        <v>10201017</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="5">
+        <v>12</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A131" s="1">
+        <v>10201018</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="5">
+        <v>2</v>
+      </c>
+      <c r="E131" s="5">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A132" s="1">
+        <v>10201019</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="5">
+        <v>2</v>
+      </c>
+      <c r="E132" s="5">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A133" s="1">
+        <v>10201020</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="5">
+        <v>13</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A134" s="1">
+        <v>10201021</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="5">
+        <v>12</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A135" s="1">
+        <v>10201022</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A136" s="1">
+        <v>10201023</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="5">
+        <v>12</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A137" s="1">
+        <v>10201024</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="5">
+        <v>12</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A138" s="1">
+        <v>10201025</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="5">
+        <v>13</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A139" s="1">
+        <v>10201026</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="5">
+        <v>2</v>
+      </c>
+      <c r="E139" s="5">
+        <v>6</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A140" s="1">
+        <v>10201027</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="5">
+        <v>2</v>
+      </c>
+      <c r="E140" s="5">
+        <v>6</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A141" s="1">
+        <v>10201028</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2</v>
+      </c>
+      <c r="E141" s="5">
+        <v>6</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A142" s="1">
+        <v>10201029</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="5">
+        <v>13</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A143" s="1">
+        <v>10201030</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="5">
+        <v>2</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A144" s="1">
+        <v>10201031</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="5">
+        <v>12</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A145" s="1">
+        <v>10201032</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="5">
+        <v>2</v>
+      </c>
+      <c r="E145" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A146" s="1">
+        <v>10201033</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="4:5" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A147" s="1">
+        <v>10201034</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="4:5" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A148" s="1">
+        <v>10201035</v>
+      </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="4:5" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A149" s="1">
+        <v>10201036</v>
+      </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="4:5" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A150" s="1">
+        <v>10201037</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="4:5" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A151" s="1">
+        <v>10201038</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="4:5" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A152" s="1">
+        <v>10201039</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="4:5" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A153" s="1">
+        <v>10201040</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="4:5" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A154" s="1">
+        <v>10201041</v>
+      </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="4:5" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A155" s="1">
+        <v>10201042</v>
+      </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="4:5" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A156" s="1">
+        <v>10201043</v>
+      </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="4:5" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A157" s="1">
+        <v>10201044</v>
+      </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="4:5" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A158" s="1">
+        <v>10201045</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="4:5" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="4:5" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
@@ -6579,1042 +8414,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="5" max="26" width="8.7265625" customWidth="1"/>
@@ -7625,59 +8432,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>87</v>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10201016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10201025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
-        <v>1001004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/Assets/Excel/ProjectExcel.xlsx
+++ b/Assets/Excel/ProjectExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\Documents\GitHub\EBS-Team-Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80051C73-3623-4F51-8B3E-8FDC90ABBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E95151F-92D6-4D23-971C-573C62B1F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -481,6 +481,387 @@
     <t>아니야~ 너도 만만치 않았어!</t>
   </si>
   <si>
+    <t>그래그래~ 그럼 잘 있어라~</t>
+  </si>
+  <si>
+    <t>어어?? 어디가?!</t>
+  </si>
+  <si>
+    <t>(빨리 도망가자..!!)</t>
+  </si>
+  <si>
+    <t>어어? 봐라 봐라? 또 옛날 나오지?</t>
+  </si>
+  <si>
+    <t>너 이러다가...</t>
+  </si>
+  <si>
+    <t>읍읍...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조용조용~ </t>
+  </si>
+  <si>
+    <t>(속닥) 말하지마..!!</t>
+  </si>
+  <si>
+    <t>왜왜!</t>
+  </si>
+  <si>
+    <t>너 옛날에 나 패고 다녔잖아!!</t>
+  </si>
+  <si>
+    <t>근데 막 너 혼자 울고 불고</t>
+  </si>
+  <si>
+    <t>어휴... 얼마나 힘들었는데</t>
+  </si>
+  <si>
+    <t>그... 난...</t>
+  </si>
+  <si>
+    <t>난 기억 안나는데?!</t>
+  </si>
+  <si>
+    <t>그쵸~ 어련하시겠어요~</t>
+  </si>
+  <si>
+    <t>너는 기억 안 나도~</t>
+  </si>
+  <si>
+    <t>내가 기억하잖아~</t>
+  </si>
+  <si>
+    <t>세상 사람들!! 얘 겁나 괴팍해요!!</t>
+  </si>
+  <si>
+    <t>야야야!!! 하지 말라고!!</t>
+  </si>
+  <si>
+    <t>(어서 자리를 피해야겠어)</t>
+  </si>
+  <si>
+    <t>안녕하세요!! 선배님!!</t>
+  </si>
+  <si>
+    <t>어~ 그래 안녕?</t>
+  </si>
+  <si>
+    <t>다짜고짜 뭐 좀 물어봐도 돼?</t>
+  </si>
+  <si>
+    <t>네! 물어보세요!</t>
+  </si>
+  <si>
+    <t>너 세빈이랑 아는 사이야?</t>
+  </si>
+  <si>
+    <t>흐응~ 그래?</t>
+  </si>
+  <si>
+    <t>다행이네!</t>
+  </si>
+  <si>
+    <t>세빈이랑 친했으면 어쩌나~ 했어</t>
+  </si>
+  <si>
+    <t>네..?</t>
+  </si>
+  <si>
+    <t>응? 아니야~</t>
+  </si>
+  <si>
+    <t>신경 꺼도 돼~</t>
+  </si>
+  <si>
+    <t>아 그래,</t>
+  </si>
+  <si>
+    <t>얘 이름이 뭐니?</t>
+  </si>
+  <si>
+    <t>저는 나주희라고 해요!</t>
+  </si>
+  <si>
+    <t>아~ 그래? 난 이지수</t>
+  </si>
+  <si>
+    <t>네에....</t>
+  </si>
+  <si>
+    <t>( 조금... 어렵다... )</t>
+  </si>
+  <si>
+    <t>하? 그래?</t>
+  </si>
+  <si>
+    <t>막 각별한 사이고 그런가?</t>
+  </si>
+  <si>
+    <t>아니요... 그정도는...? 아니죠..</t>
+  </si>
+  <si>
+    <t>적당히... 소꿉놀이 하던 친구에요</t>
+  </si>
+  <si>
+    <t>그래...?</t>
+  </si>
+  <si>
+    <t>너 정도면 딱 그정도가 나아~</t>
+  </si>
+  <si>
+    <t>네...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">못 들었니? 다시 말해줄까? </t>
+  </si>
+  <si>
+    <t>딱 후줄근하고 수준 보이니까 그정도면 낫다고,</t>
+  </si>
+  <si>
+    <t>네... 알겠습니다...</t>
+  </si>
+  <si>
+    <t>( 빨리 자리를 피해야겠어... )</t>
+  </si>
+  <si>
+    <t>그럼 막 각별한 사이고 그러겠네?</t>
+  </si>
+  <si>
+    <t>네! 아무래도... 어릴 때 부터 봐와서...</t>
+  </si>
+  <si>
+    <t>얘 좀 봐라? 막 자랑하는거야?</t>
+  </si>
+  <si>
+    <t>그럴 의도는 없었어요...</t>
+  </si>
+  <si>
+    <t>진짜에요!</t>
+  </si>
+  <si>
+    <t>네네~ 그러시겠죠~</t>
+  </si>
+  <si>
+    <t>그런 말 하는거 한두번이겠니?</t>
+  </si>
+  <si>
+    <t>솔직히 말하면 어디 덧나나?</t>
+  </si>
+  <si>
+    <t>너 지금 세빈이 좋아해요~ 하잖아</t>
+  </si>
+  <si>
+    <t>죄송합니다...</t>
+  </si>
+  <si>
+    <t>( 정말... 그런 사이 아닌데... )</t>
+  </si>
+  <si>
+    <t>( 어제 일로 조금 힘들지만... 힘내서 빨리 가자! )</t>
+  </si>
+  <si>
+    <t>엇! 야옹아!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 잘 있었어?</t>
+  </si>
+  <si>
+    <t>그럼~ 우리 주희는?</t>
+  </si>
+  <si>
+    <t>나는...</t>
+  </si>
+  <si>
+    <t>나는 잘 있었지~</t>
+  </si>
+  <si>
+    <t>우리 야옹이 덕분에  잘 지냈지~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그렇다면 다행이야! </t>
+  </si>
+  <si>
+    <t>응? 왜?</t>
+  </si>
+  <si>
+    <t>주희는 이렇게 생활 해보는게 처음이지?</t>
+  </si>
+  <si>
+    <t>왜 나만 힘들게 하는지... 세상은 왜 이러는지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그치... </t>
+  </si>
+  <si>
+    <t>사실, 그런 주희가 너무 걱정이 되서 이렇게 왔어</t>
+  </si>
+  <si>
+    <t>걱정? 너 내 상상동물이라고 하지 않았어?</t>
+  </si>
+  <si>
+    <t>그치~ 그건 맞아</t>
+  </si>
+  <si>
+    <t>너의 무의식 속에서 도움을 주고 싶었어.</t>
+  </si>
+  <si>
+    <t>하지만 우리 주희는 씩씩하게 잘 해내고 있었어.</t>
+  </si>
+  <si>
+    <t>그런가..? 헤헤</t>
+  </si>
+  <si>
+    <t>그럼!</t>
+  </si>
+  <si>
+    <t>이제 내가 없어도 잘 해낼 수 있을꺼같아.</t>
+  </si>
+  <si>
+    <t>어? 야옹아...?</t>
+  </si>
+  <si>
+    <t>앞으로도 잘 해낼 수 있지?</t>
+  </si>
+  <si>
+    <t>너무 갑자기 이별 하는 거 아니야...?</t>
+  </si>
+  <si>
+    <t>아니야,</t>
+  </si>
+  <si>
+    <t>나는 너의 상상동물이잖아?</t>
+  </si>
+  <si>
+    <t>언제든지 너가 상상하면 나는 너의 머릿속에 있을꺼야</t>
+  </si>
+  <si>
+    <t>응...</t>
+  </si>
+  <si>
+    <t>그동안 고마웠어 야옹아...</t>
+  </si>
+  <si>
+    <t>우리 주희 잘 지내! 보고 싶을꺼야.</t>
+  </si>
+  <si>
+    <t>야옹이도, 잘 지내...!</t>
+  </si>
+  <si>
+    <t>응 엄마~</t>
+  </si>
+  <si>
+    <t>나?</t>
+  </si>
+  <si>
+    <t>나야 잘 지냈지!</t>
+  </si>
+  <si>
+    <t>응응! 누구 딸래미인데~</t>
+  </si>
+  <si>
+    <t>헤헤 이제 어엿한 어른이야~</t>
+  </si>
+  <si>
+    <t>...안 힘든건 아니지</t>
+  </si>
+  <si>
+    <t>그래도, 그만큼 나 혼자 해내는게 좋은 거 같아</t>
+  </si>
+  <si>
+    <t>헤헤... 그치? 이제 어른이라니까?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">응! </t>
+  </si>
+  <si>
+    <t>알겠어~</t>
+  </si>
+  <si>
+    <t>이제 슬슬 끊어요!</t>
+  </si>
+  <si>
+    <t>엄마 안녕~</t>
+  </si>
+  <si>
+    <t>( 어제 일로 조금 힘들지만... 뭐 어쩔 수 있나... 가야지 )</t>
+  </si>
+  <si>
+    <t>...야옹이?</t>
+  </si>
+  <si>
+    <t>주희 안녕?</t>
+  </si>
+  <si>
+    <t>우리 주희 무슨 일 있어?</t>
+  </si>
+  <si>
+    <t>일은 없구...</t>
+  </si>
+  <si>
+    <t>야옹아,</t>
+  </si>
+  <si>
+    <t>너는 상상동물이잖아</t>
+  </si>
+  <si>
+    <t>그치?</t>
+  </si>
+  <si>
+    <t>그럼 결국엔 내가 혼자 만들어낸 환각 아니야?</t>
+  </si>
+  <si>
+    <t>이 스트레스로 너라는 존재가 이렇게 나오는 거라면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">난 이제... </t>
+  </si>
+  <si>
+    <t>너를 볼 때마다 내 자신이 싫어질꺼같아</t>
+  </si>
+  <si>
+    <t>응, 그래서?</t>
+  </si>
+  <si>
+    <t>이제...</t>
+  </si>
+  <si>
+    <t>더 이상 내 눈에 보이지 마.</t>
+  </si>
+  <si>
+    <t>...그래!</t>
+  </si>
+  <si>
+    <t>우리 주희 너무 힘들지 않았음 좋겠다...</t>
+  </si>
+  <si>
+    <t>잘 지내야해?</t>
+  </si>
+  <si>
+    <t>엄마...</t>
+  </si>
+  <si>
+    <t>응... 응</t>
+  </si>
+  <si>
+    <t>잘 지내지...</t>
+  </si>
+  <si>
+    <t>...아냐 사실</t>
+  </si>
+  <si>
+    <t>너무 힘들어...</t>
+  </si>
+  <si>
+    <t>어떻게 해야할지 모르겠어...</t>
+  </si>
+  <si>
+    <t>다 내 잘못인거같고,</t>
+  </si>
+  <si>
+    <t>잘 안 풀려...</t>
+  </si>
+  <si>
     <t>stressEvent</t>
   </si>
   <si>
@@ -494,13 +875,22 @@
   </si>
   <si>
     <t>너... 여기서말하면 나한테 죽는다...?</t>
+  </si>
+  <si>
+    <t>옛날에 알았지만 그렇게 친하진 않아요.</t>
+  </si>
+  <si>
+    <t>음... 옛날에 조금 알던 사람이에요!</t>
+  </si>
+  <si>
+    <t>소꿉친구 사이에요!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -521,6 +911,11 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="3"/>
@@ -528,12 +923,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -548,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -564,7 +965,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E145" sqref="D2:E145"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -840,10 +1247,10 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="7">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -869,10 +1276,10 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="7">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -898,10 +1305,10 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="7">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -927,10 +1334,10 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="7">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -956,10 +1363,10 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="7">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -985,10 +1392,10 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1014,10 +1421,10 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="7">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1043,10 +1450,10 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="7">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1072,10 +1479,10 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="7">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1101,10 +1508,10 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="7">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1130,10 +1537,10 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1159,10 +1566,10 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1188,10 +1595,10 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1217,10 +1624,10 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1246,10 +1653,10 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1275,11 +1682,11 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5">
-        <v>12</v>
+      <c r="D17" s="7">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -1304,11 +1711,11 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5">
-        <v>16</v>
+      <c r="D18" s="7">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
@@ -1333,11 +1740,11 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5">
-        <v>16</v>
+      <c r="D19" s="7">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
@@ -1362,10 +1769,10 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1391,10 +1798,10 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1420,10 +1827,10 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1449,10 +1856,10 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1478,10 +1885,10 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1507,10 +1914,10 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1536,10 +1943,10 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="7">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1565,10 +1972,10 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="7">
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1594,10 +2001,10 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="5">
-        <v>18</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="7">
+        <v>16</v>
+      </c>
+      <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1623,10 +2030,10 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1652,10 +2059,10 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1681,10 +2088,10 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1710,10 +2117,10 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="5">
-        <v>18</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="7">
+        <v>16</v>
+      </c>
+      <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1739,10 +2146,10 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="5">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="7">
+        <v>17</v>
+      </c>
+      <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1768,10 +2175,10 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
-        <v>18</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="7">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1797,10 +2204,10 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1826,10 +2233,10 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="5">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="7">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1855,10 +2262,10 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="5">
-        <v>19</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="7">
+        <v>17</v>
+      </c>
+      <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1884,10 +2291,10 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1913,10 +2320,10 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="5">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="7">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -1942,10 +2349,10 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D40" s="5">
-        <v>23</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="7">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -1971,10 +2378,10 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
-        <v>23</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="7">
+        <v>19</v>
+      </c>
+      <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2000,10 +2407,10 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
-        <v>23</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="7">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2029,10 +2436,10 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="5">
-        <v>23</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="7">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2058,10 +2465,10 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="5">
-        <v>23</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="7">
+        <v>19</v>
+      </c>
+      <c r="E44" s="7">
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2087,10 +2494,10 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="5">
-        <v>23</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="7">
+        <v>19</v>
+      </c>
+      <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2116,10 +2523,10 @@
       <c r="C46" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
-        <v>23</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="7">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7">
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2145,10 +2552,10 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="5">
-        <v>23</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="7">
+        <v>19</v>
+      </c>
+      <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2174,10 +2581,10 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
-        <v>23</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="7">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7">
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -2203,10 +2610,10 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
-        <v>23</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="7">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7">
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -2232,10 +2639,10 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="D50" s="5">
-        <v>23</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50" s="7">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7">
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2261,10 +2668,10 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51" s="5">
-        <v>23</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51" s="7">
+        <v>19</v>
+      </c>
+      <c r="E51" s="7">
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -2290,10 +2697,10 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-      <c r="D52" s="5">
-        <v>23</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="7">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7">
         <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2319,10 +2726,10 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-      <c r="D53" s="5">
-        <v>23</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D53" s="7">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7">
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2348,10 +2755,10 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="5">
-        <v>23</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="D54" s="7">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7">
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2377,10 +2784,10 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-      <c r="D55" s="5">
-        <v>23</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="D55" s="7">
+        <v>19</v>
+      </c>
+      <c r="E55" s="7">
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -2406,10 +2813,10 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-      <c r="D56" s="5">
-        <v>23</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="7">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7">
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2435,10 +2842,10 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57" s="5">
-        <v>23</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="D57" s="7">
+        <v>19</v>
+      </c>
+      <c r="E57" s="7">
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2464,10 +2871,10 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
-        <v>23</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="D58" s="7">
+        <v>19</v>
+      </c>
+      <c r="E58" s="7">
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2493,10 +2900,10 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="7">
         <v>2</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="7">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2522,10 +2929,10 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="5">
-        <v>18</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="D60" s="7">
+        <v>17</v>
+      </c>
+      <c r="E60" s="7">
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2551,10 +2958,10 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="7">
         <v>2</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="7">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2580,10 +2987,10 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="7">
         <v>2</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="7">
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2609,10 +3016,10 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="7">
         <v>2</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="7">
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2638,10 +3045,10 @@
       <c r="C64" s="3">
         <v>0</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="7">
         <v>2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="7">
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -2667,10 +3074,10 @@
       <c r="C65" s="3">
         <v>1</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="7">
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -2696,10 +3103,10 @@
       <c r="C66" s="3">
         <v>1</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="7">
         <v>2</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="7">
         <v>9</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -2725,10 +3132,10 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="7">
         <v>2</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="7">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2754,10 +3161,10 @@
       <c r="C68" s="3">
         <v>1</v>
       </c>
-      <c r="D68" s="5">
-        <v>19</v>
-      </c>
-      <c r="E68" s="5">
+      <c r="D68" s="7">
+        <v>17</v>
+      </c>
+      <c r="E68" s="7">
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2783,10 +3190,10 @@
       <c r="C69" s="3">
         <v>1</v>
       </c>
-      <c r="D69" s="5">
-        <v>18</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="D69" s="7">
+        <v>16</v>
+      </c>
+      <c r="E69" s="7">
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2812,10 +3219,10 @@
       <c r="C70" s="3">
         <v>1</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="7">
         <v>2</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="7">
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -2841,10 +3248,10 @@
       <c r="C71" s="3">
         <v>1</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="7">
         <v>2</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="7">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -2870,10 +3277,10 @@
       <c r="C72" s="3">
         <v>1</v>
       </c>
-      <c r="D72" s="5">
-        <v>18</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="D72" s="7">
+        <v>16</v>
+      </c>
+      <c r="E72" s="7">
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -2899,10 +3306,10 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-      <c r="D73" s="5">
-        <v>19</v>
-      </c>
-      <c r="E73" s="5">
+      <c r="D73" s="7">
+        <v>17</v>
+      </c>
+      <c r="E73" s="7">
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -2928,10 +3335,10 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-      <c r="D74" s="5">
-        <v>18</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="D74" s="7">
+        <v>16</v>
+      </c>
+      <c r="E74" s="7">
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -2957,10 +3364,10 @@
       <c r="C75" s="3">
         <v>1</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="7">
         <v>2</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="7">
         <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -2986,10 +3393,10 @@
       <c r="C76" s="3">
         <v>0</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="7">
         <v>2</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="7">
         <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -3015,10 +3422,10 @@
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="D77" s="5">
-        <v>1</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7">
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -3044,10 +3451,10 @@
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5">
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7">
         <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -3073,10 +3480,10 @@
       <c r="C79" s="1">
         <v>0</v>
       </c>
-      <c r="D79" s="5">
-        <v>1</v>
-      </c>
-      <c r="E79" s="5">
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7">
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -3102,10 +3509,10 @@
       <c r="C80" s="1">
         <v>1</v>
       </c>
-      <c r="D80" s="5">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -3131,10 +3538,10 @@
       <c r="C81" s="1">
         <v>0</v>
       </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5">
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
         <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -3160,10 +3567,10 @@
       <c r="C82" s="1">
         <v>0</v>
       </c>
-      <c r="D82" s="5">
-        <v>1</v>
-      </c>
-      <c r="E82" s="5">
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7">
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -3189,10 +3596,10 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-      <c r="D83" s="5">
-        <v>1</v>
-      </c>
-      <c r="E83" s="5">
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -3218,10 +3625,10 @@
       <c r="C84" s="1">
         <v>1</v>
       </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5">
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
         <v>7</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -3247,10 +3654,10 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7">
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -3274,12 +3681,12 @@
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7">
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -3305,10 +3712,10 @@
       <c r="C87" s="1">
         <v>1</v>
       </c>
-      <c r="D87" s="5">
-        <v>0</v>
-      </c>
-      <c r="E87" s="5">
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -3334,10 +3741,10 @@
       <c r="C88" s="1">
         <v>1</v>
       </c>
-      <c r="D88" s="5">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7">
         <v>6</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -3363,10 +3770,10 @@
       <c r="C89" s="1">
         <v>1</v>
       </c>
-      <c r="D89" s="5">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5">
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -3392,10 +3799,10 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
-      <c r="D90" s="5">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5">
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="7">
         <v>9</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -3450,10 +3857,10 @@
       <c r="C92" s="1">
         <v>1</v>
       </c>
-      <c r="D92" s="5">
-        <v>23</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="D92" s="7">
+        <v>20</v>
+      </c>
+      <c r="E92" s="7">
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -3479,10 +3886,10 @@
       <c r="C93" s="1">
         <v>1</v>
       </c>
-      <c r="D93" s="5">
-        <v>23</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="D93" s="7">
+        <v>20</v>
+      </c>
+      <c r="E93" s="7">
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -3508,10 +3915,10 @@
       <c r="C94" s="1">
         <v>0</v>
       </c>
-      <c r="D94" s="5">
-        <v>23</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="D94" s="7">
+        <v>20</v>
+      </c>
+      <c r="E94" s="7">
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -3537,10 +3944,10 @@
       <c r="C95" s="1">
         <v>1</v>
       </c>
-      <c r="D95" s="5">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7">
         <v>9</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -3566,10 +3973,10 @@
       <c r="C96" s="1">
         <v>1</v>
       </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
-      <c r="E96" s="5">
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -3595,10 +4002,10 @@
       <c r="C97" s="1">
         <v>1</v>
       </c>
-      <c r="D97" s="5">
-        <v>18</v>
-      </c>
-      <c r="E97" s="5">
+      <c r="D97" s="7">
+        <v>16</v>
+      </c>
+      <c r="E97" s="7">
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -3624,10 +4031,10 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5">
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7">
         <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -3653,10 +4060,10 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
         <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -3682,10 +4089,10 @@
       <c r="C100" s="1">
         <v>1</v>
       </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7">
         <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -3711,10 +4118,10 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-      <c r="D101" s="5">
-        <v>17</v>
-      </c>
-      <c r="E101" s="5">
+      <c r="D101" s="7">
+        <v>16</v>
+      </c>
+      <c r="E101" s="7">
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -3740,10 +4147,10 @@
       <c r="C102" s="1">
         <v>1</v>
       </c>
-      <c r="D102" s="5">
-        <v>17</v>
-      </c>
-      <c r="E102" s="5">
+      <c r="D102" s="7">
+        <v>16</v>
+      </c>
+      <c r="E102" s="7">
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -3769,10 +4176,10 @@
       <c r="C103" s="1">
         <v>1</v>
       </c>
-      <c r="D103" s="5">
-        <v>17</v>
-      </c>
-      <c r="E103" s="5">
+      <c r="D103" s="7">
+        <v>16</v>
+      </c>
+      <c r="E103" s="7">
         <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -3798,10 +4205,10 @@
       <c r="C104" s="1">
         <v>1</v>
       </c>
-      <c r="D104" s="5">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5">
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7">
         <v>5</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -3827,10 +4234,10 @@
       <c r="C105" s="1">
         <v>1</v>
       </c>
-      <c r="D105" s="5">
-        <v>17</v>
-      </c>
-      <c r="E105" s="5">
+      <c r="D105" s="7">
+        <v>16</v>
+      </c>
+      <c r="E105" s="7">
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -3856,10 +4263,10 @@
       <c r="C106" s="1">
         <v>0</v>
       </c>
-      <c r="D106" s="5">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5">
+      <c r="D106" s="7">
+        <v>1</v>
+      </c>
+      <c r="E106" s="7">
         <v>5</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -3885,10 +4292,10 @@
       <c r="C107" s="1">
         <v>1</v>
       </c>
-      <c r="D107" s="5">
-        <v>17</v>
-      </c>
-      <c r="E107" s="5">
+      <c r="D107" s="7">
+        <v>16</v>
+      </c>
+      <c r="E107" s="7">
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -3914,10 +4321,10 @@
       <c r="C108" s="1">
         <v>1</v>
       </c>
-      <c r="D108" s="5">
-        <v>17</v>
-      </c>
-      <c r="E108" s="5">
+      <c r="D108" s="7">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7">
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -3943,10 +4350,10 @@
       <c r="C109" s="1">
         <v>1</v>
       </c>
-      <c r="D109" s="5">
-        <v>17</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="D109" s="7">
+        <v>16</v>
+      </c>
+      <c r="E109" s="7">
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -3972,10 +4379,10 @@
       <c r="C110" s="1">
         <v>1</v>
       </c>
-      <c r="D110" s="5">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5">
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7">
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4001,10 +4408,10 @@
       <c r="C111" s="1">
         <v>1</v>
       </c>
-      <c r="D111" s="5">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5">
+      <c r="D111" s="7">
+        <v>1</v>
+      </c>
+      <c r="E111" s="7">
         <v>6</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -4030,10 +4437,10 @@
       <c r="C112" s="1">
         <v>1</v>
       </c>
-      <c r="D112" s="5">
-        <v>1</v>
-      </c>
-      <c r="E112" s="5">
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7">
         <v>6</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -4059,10 +4466,10 @@
       <c r="C113" s="1">
         <v>0</v>
       </c>
-      <c r="D113" s="5">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5">
+      <c r="D113" s="7">
+        <v>1</v>
+      </c>
+      <c r="E113" s="7">
         <v>3</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4088,10 +4495,10 @@
       <c r="C114" s="1">
         <v>1</v>
       </c>
-      <c r="D114" s="5">
-        <v>12</v>
-      </c>
-      <c r="E114" s="5">
+      <c r="D114" s="7">
+        <v>13</v>
+      </c>
+      <c r="E114" s="7">
         <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -4117,10 +4524,10 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="7">
         <v>2</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="7">
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -4146,10 +4553,10 @@
       <c r="C116" s="1">
         <v>1</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="7">
         <v>2</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="7">
         <v>6</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -4175,10 +4582,10 @@
       <c r="C117" s="1">
         <v>1</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="7">
         <v>2</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="7">
         <v>6</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -4204,10 +4611,10 @@
       <c r="C118" s="1">
         <v>1</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="7">
         <v>2</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="7">
         <v>6</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -4233,10 +4640,10 @@
       <c r="C119" s="1">
         <v>1</v>
       </c>
-      <c r="D119" s="5">
-        <v>12</v>
-      </c>
-      <c r="E119" s="5">
+      <c r="D119" s="7">
+        <v>13</v>
+      </c>
+      <c r="E119" s="7">
         <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -4262,10 +4669,10 @@
       <c r="C120" s="1">
         <v>1</v>
       </c>
-      <c r="D120" s="5">
-        <v>12</v>
-      </c>
-      <c r="E120" s="5">
+      <c r="D120" s="7">
+        <v>13</v>
+      </c>
+      <c r="E120" s="7">
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -4291,10 +4698,10 @@
       <c r="C121" s="1">
         <v>1</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="7">
         <v>2</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="7">
         <v>3</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -4320,10 +4727,10 @@
       <c r="C122" s="1">
         <v>1</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="7">
         <v>2</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="7">
         <v>6</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -4349,10 +4756,10 @@
       <c r="C123" s="1">
         <v>1</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="7">
         <v>2</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="7">
         <v>6</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -4378,10 +4785,10 @@
       <c r="C124" s="1">
         <v>1</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="7">
         <v>2</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="7">
         <v>3</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -4407,10 +4814,10 @@
       <c r="C125" s="1">
         <v>1</v>
       </c>
-      <c r="D125" s="5">
-        <v>12</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="D125" s="7">
+        <v>13</v>
+      </c>
+      <c r="E125" s="7">
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -4436,10 +4843,10 @@
       <c r="C126" s="1">
         <v>1</v>
       </c>
-      <c r="D126" s="5">
-        <v>12</v>
-      </c>
-      <c r="E126" s="5">
+      <c r="D126" s="7">
+        <v>13</v>
+      </c>
+      <c r="E126" s="7">
         <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -4465,10 +4872,10 @@
       <c r="C127" s="1">
         <v>1</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="7">
         <v>2</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="7">
         <v>7</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -4494,10 +4901,10 @@
       <c r="C128" s="1">
         <v>1</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="7">
         <v>2</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="7">
         <v>7</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -4523,10 +4930,10 @@
       <c r="C129" s="1">
         <v>1</v>
       </c>
-      <c r="D129" s="5">
-        <v>12</v>
-      </c>
-      <c r="E129" s="5">
+      <c r="D129" s="7">
+        <v>13</v>
+      </c>
+      <c r="E129" s="7">
         <v>0</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -4552,10 +4959,10 @@
       <c r="C130" s="1">
         <v>1</v>
       </c>
-      <c r="D130" s="5">
-        <v>12</v>
-      </c>
-      <c r="E130" s="5">
+      <c r="D130" s="7">
+        <v>14</v>
+      </c>
+      <c r="E130" s="7">
         <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -4581,10 +4988,10 @@
       <c r="C131" s="1">
         <v>1</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="7">
         <v>2</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="7">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -4610,10 +5017,10 @@
       <c r="C132" s="1">
         <v>1</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="7">
         <v>2</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="7">
         <v>3</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -4639,10 +5046,10 @@
       <c r="C133" s="1">
         <v>1</v>
       </c>
-      <c r="D133" s="5">
-        <v>13</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="D133" s="7">
+        <v>14</v>
+      </c>
+      <c r="E133" s="7">
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -4668,10 +5075,10 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="5">
-        <v>12</v>
-      </c>
-      <c r="E134" s="5">
+      <c r="D134" s="7">
+        <v>13</v>
+      </c>
+      <c r="E134" s="7">
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -4697,10 +5104,10 @@
       <c r="C135" s="1">
         <v>1</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="7">
         <v>2</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="7">
         <v>3</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -4726,10 +5133,10 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-      <c r="D136" s="5">
-        <v>12</v>
-      </c>
-      <c r="E136" s="5">
+      <c r="D136" s="7">
+        <v>13</v>
+      </c>
+      <c r="E136" s="7">
         <v>0</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -4755,10 +5162,10 @@
       <c r="C137" s="1">
         <v>0</v>
       </c>
-      <c r="D137" s="5">
-        <v>12</v>
-      </c>
-      <c r="E137" s="5">
+      <c r="D137" s="7">
+        <v>13</v>
+      </c>
+      <c r="E137" s="7">
         <v>0</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -4784,10 +5191,10 @@
       <c r="C138" s="1">
         <v>1</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="7">
         <v>13</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="7">
         <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -4813,14 +5220,23 @@
       <c r="C139" s="1">
         <v>1</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="7">
         <v>2</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="7">
         <v>6</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1">
@@ -4833,14 +5249,23 @@
       <c r="C140" s="1">
         <v>1</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="7">
         <v>2</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="7">
         <v>6</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1">
@@ -4853,14 +5278,23 @@
       <c r="C141" s="1">
         <v>1</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="7">
         <v>2</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="7">
         <v>6</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1">
@@ -4873,14 +5307,23 @@
       <c r="C142" s="1">
         <v>1</v>
       </c>
-      <c r="D142" s="5">
-        <v>13</v>
-      </c>
-      <c r="E142" s="5">
+      <c r="D142" s="7">
+        <v>14</v>
+      </c>
+      <c r="E142" s="7">
         <v>0</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>148</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1">
@@ -4893,14 +5336,23 @@
       <c r="C143" s="1">
         <v>1</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="7">
         <v>2</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="7">
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1">
@@ -4913,17 +5365,26 @@
       <c r="C144" s="1">
         <v>1</v>
       </c>
-      <c r="D144" s="5">
-        <v>12</v>
-      </c>
-      <c r="E144" s="5">
+      <c r="D144" s="7">
+        <v>13</v>
+      </c>
+      <c r="E144" s="7">
         <v>0</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1">
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>10201032</v>
       </c>
@@ -4933,14 +5394,26 @@
       <c r="C145" s="1">
         <v>1</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="7">
         <v>2</v>
       </c>
-      <c r="E145" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E145" s="7">
+        <v>3</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>10201033</v>
       </c>
@@ -4950,610 +5423,3859 @@
       <c r="C146" s="1">
         <v>1</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D146" s="7">
+        <v>13</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>10201034</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="7">
+        <v>2</v>
+      </c>
+      <c r="E147" s="7">
+        <v>7</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>10201035</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="7">
+        <v>14</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>10201036</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7">
+        <v>14</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>10201037</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="7">
+        <v>15</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>10201038</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="7">
+        <v>2</v>
+      </c>
+      <c r="E151" s="7">
+        <v>7</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>10201039</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="7">
+        <v>2</v>
+      </c>
+      <c r="E152" s="7">
+        <v>7</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>10201040</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="7">
+        <v>14</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>10201041</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="7">
+        <v>14</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>10201042</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="7">
+        <v>14</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>10201043</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="7">
+        <v>13</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>10201044</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="7">
+        <v>2</v>
+      </c>
+      <c r="E157" s="7">
+        <v>8</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>10201045</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="4:5" ht="15.75" customHeight="1">
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="7">
+        <v>2</v>
+      </c>
+      <c r="E158" s="7">
+        <v>5</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A159" s="1">
+        <v>10201046</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="7">
+        <v>13</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A160" s="1">
+        <v>10201047</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="7">
+        <v>14</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A161" s="1">
+        <v>10201048</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7">
+        <v>13</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A162" s="1">
+        <v>10201049</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="7">
+        <v>13</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A163" s="1">
+        <v>10201050</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="7">
+        <v>2</v>
+      </c>
+      <c r="E163" s="7">
+        <v>9</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A164" s="1">
+        <v>10201051</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="7">
+        <v>2</v>
+      </c>
+      <c r="E164" s="7">
+        <v>8</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A165" s="1">
+        <v>10301001</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="7">
+        <v>2</v>
+      </c>
+      <c r="E165" s="7">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A166" s="1">
+        <v>10301002</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="7">
+        <v>10</v>
+      </c>
+      <c r="E166" s="7">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A167" s="1">
+        <v>10301003</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7">
+        <v>10</v>
+      </c>
+      <c r="E167" s="7">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A168" s="1">
+        <v>10301004</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="7">
+        <v>2</v>
+      </c>
+      <c r="E168" s="7">
+        <v>3</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A169" s="1">
+        <v>10301005</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="7">
+        <v>10</v>
+      </c>
+      <c r="E169" s="7">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G169" s="1">
+        <v>4</v>
+      </c>
+      <c r="H169" s="1">
+        <v>5</v>
+      </c>
+      <c r="I169" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A170" s="1">
+        <v>10301006</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="7">
+        <v>12</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A171" s="1">
+        <v>10301007</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D171" s="7">
+        <v>10</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A172" s="1">
+        <v>10301008</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="7">
+        <v>10</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A173" s="1">
+        <v>10301009</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="7">
+        <v>2</v>
+      </c>
+      <c r="E173" s="7">
+        <v>5</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A174" s="1">
+        <v>10301010</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="7">
+        <v>12</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A175" s="1">
+        <v>10301011</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="7">
+        <v>10</v>
+      </c>
+      <c r="E175" s="7">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A176" s="1">
+        <v>10301012</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="5">
+        <v>1</v>
+      </c>
+      <c r="D176" s="4">
+        <v>10</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A177" s="1">
+        <v>10301013</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A178" s="1">
+        <v>10301014</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="4">
+        <v>2</v>
+      </c>
+      <c r="E178" s="4">
+        <v>6</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A179" s="1">
+        <v>10301015</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4">
+        <v>12</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A180" s="1">
+        <v>10301016</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="7">
+        <v>2</v>
+      </c>
+      <c r="E180" s="7">
+        <v>7</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A181" s="1">
+        <v>10301017</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+      <c r="D181" s="7">
+        <v>2</v>
+      </c>
+      <c r="E181" s="7">
+        <v>5</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A182" s="1">
+        <v>10301018</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="7">
+        <v>12</v>
+      </c>
+      <c r="E182" s="7">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A183" s="1">
+        <v>10301019</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="7">
+        <v>10</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A184" s="1">
+        <v>10301020</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="7">
+        <v>2</v>
+      </c>
+      <c r="E184" s="7">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A185" s="1">
+        <v>10301021</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="7">
+        <v>2</v>
+      </c>
+      <c r="E185" s="7">
+        <v>3</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A186" s="1">
+        <v>10301022</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="7">
+        <v>12</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A187" s="1">
+        <v>10301023</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="7">
+        <v>10</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A188" s="1">
+        <v>10301024</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="7">
+        <v>2</v>
+      </c>
+      <c r="E188" s="7">
+        <v>4</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A189" s="1">
+        <v>10301025</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="7">
+        <v>10</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A190" s="1">
+        <v>10301026</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="7">
+        <v>10</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A191" s="1">
+        <v>10301027</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="7">
+        <v>2</v>
+      </c>
+      <c r="E191" s="7">
+        <v>7</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A192" s="1">
+        <v>10301028</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="7">
+        <v>2</v>
+      </c>
+      <c r="E192" s="7">
+        <v>8</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A193" s="1">
+        <v>10301029</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="7">
+        <v>12</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A194" s="1">
+        <v>10301030</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="7">
+        <v>2</v>
+      </c>
+      <c r="E194" s="7">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A195" s="1">
+        <v>10301031</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="7">
+        <v>10</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A196" s="1">
+        <v>10301032</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="7">
+        <v>2</v>
+      </c>
+      <c r="E196" s="7">
+        <v>7</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A197" s="1">
+        <v>10301033</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="7">
+        <v>2</v>
+      </c>
+      <c r="E197" s="7">
+        <v>7</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A198" s="1">
+        <v>10301034</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="7">
+        <v>2</v>
+      </c>
+      <c r="E198" s="7">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A199" s="1">
+        <v>10301035</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="7">
+        <v>11</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A200" s="1">
+        <v>10301036</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="7">
+        <v>10</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A201" s="1">
+        <v>10301037</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="7">
+        <v>12</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A202" s="1">
+        <v>10301038</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="7">
+        <v>12</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A203" s="1">
+        <v>10301039</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="7">
+        <v>2</v>
+      </c>
+      <c r="E203" s="7">
+        <v>7</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A204" s="1">
+        <v>10301040</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="7">
+        <v>2</v>
+      </c>
+      <c r="E204" s="7">
+        <v>8</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G204" s="1">
+        <v>0</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A205" s="1">
+        <v>3101001</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="7">
+        <v>2</v>
+      </c>
+      <c r="E205" s="7">
+        <v>3</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A206" s="1">
+        <v>3101002</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="7">
+        <v>2</v>
+      </c>
+      <c r="E206" s="7">
+        <v>6</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G206" s="1">
+        <v>0</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A207" s="1">
+        <v>3101003</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="7">
+        <v>2</v>
+      </c>
+      <c r="E207" s="7">
+        <v>6</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A208" s="1">
+        <v>3101004</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="7">
+        <v>17</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A209" s="1">
+        <v>3101005</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="7">
+        <v>2</v>
+      </c>
+      <c r="E209" s="7">
+        <v>7</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A210" s="1">
+        <v>3101006</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="7">
+        <v>21</v>
+      </c>
+      <c r="E210" s="7">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G210" s="1">
+        <v>0</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A211" s="1">
+        <v>3101007</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="7">
+        <v>21</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A212" s="1">
+        <v>3101008</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="7">
+        <v>21</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A213" s="1">
+        <v>3101009</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="7">
+        <v>21</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A214" s="1">
+        <v>3101010</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="7">
+        <v>21</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A215" s="1">
+        <v>3101011</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="7">
+        <v>21</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A216" s="1">
+        <v>3101012</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="7">
+        <v>21</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A217" s="1">
+        <v>3101013</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="7">
+        <v>21</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A218" s="1">
+        <v>3101014</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="7">
+        <v>21</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A219" s="1">
+        <v>3101015</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="7">
+        <v>21</v>
+      </c>
+      <c r="E219" s="7">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A220" s="1">
+        <v>3101016</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="7">
+        <v>21</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A221" s="1">
+        <v>3101017</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="7">
+        <v>21</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A222" s="1">
+        <v>3101018</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="7">
+        <v>21</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A223" s="1">
+        <v>3101019</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="7">
+        <v>21</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A224" s="1">
+        <v>3101020</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="7">
+        <v>21</v>
+      </c>
+      <c r="E224" s="7">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A225" s="1">
+        <v>3101021</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="7">
+        <v>22</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A226" s="1">
+        <v>3101022</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" s="7">
+        <v>22</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G226" s="1">
+        <v>0</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A227" s="1">
+        <v>3101023</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="7">
+        <v>22</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A228" s="1">
+        <v>3101024</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="7">
+        <v>22</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A229" s="1">
+        <v>3101025</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="7">
+        <v>22</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A230" s="1">
+        <v>3101026</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="7">
+        <v>22</v>
+      </c>
+      <c r="E230" s="7">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A231" s="1">
+        <v>3101027</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+      <c r="D231" s="7">
+        <v>22</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A232" s="1">
+        <v>3101028</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="7">
+        <v>22</v>
+      </c>
+      <c r="E232" s="7">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A233" s="1">
+        <v>3101029</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="7">
+        <v>22</v>
+      </c>
+      <c r="E233" s="7">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A234" s="1">
+        <v>3101030</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+      <c r="D234" s="7">
+        <v>22</v>
+      </c>
+      <c r="E234" s="7">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A235" s="1">
+        <v>3101031</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D235" s="7">
+        <v>27</v>
+      </c>
+      <c r="E235" s="7">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A236" s="1">
+        <v>3101032</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="7">
+        <v>27</v>
+      </c>
+      <c r="E236" s="7">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A237" s="1">
+        <v>3101033</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="7">
+        <v>27</v>
+      </c>
+      <c r="E237" s="7">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A238" s="1">
+        <v>3101034</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="7">
+        <v>27</v>
+      </c>
+      <c r="E238" s="7">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G238" s="1">
+        <v>0</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A239" s="1">
+        <v>3101035</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="7">
+        <v>27</v>
+      </c>
+      <c r="E239" s="7">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A240" s="1">
+        <v>3101036</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="7">
+        <v>27</v>
+      </c>
+      <c r="E240" s="7">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A241" s="1">
+        <v>3101037</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="7">
+        <v>27</v>
+      </c>
+      <c r="E241" s="7">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A242" s="1">
+        <v>3101038</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="7">
+        <v>27</v>
+      </c>
+      <c r="E242" s="7">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A243" s="1">
+        <v>3101039</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="7">
+        <v>27</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A244" s="1">
+        <v>3101040</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="7">
+        <v>27</v>
+      </c>
+      <c r="E244" s="7">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G244" s="1">
+        <v>0</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A245" s="1">
+        <v>3101041</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="7">
+        <v>27</v>
+      </c>
+      <c r="E245" s="7">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A246" s="1">
+        <v>3101042</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="7">
+        <v>27</v>
+      </c>
+      <c r="E246" s="7">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G246" s="1">
+        <v>0</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A247" s="1">
+        <v>3101043</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+      <c r="D247" s="7">
+        <v>27</v>
+      </c>
+      <c r="E247" s="7">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A248" s="1">
+        <v>3201001</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+      <c r="D248" s="7">
+        <v>2</v>
+      </c>
+      <c r="E248" s="7">
+        <v>7</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A249" s="1">
+        <v>3201002</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="7">
+        <v>2</v>
+      </c>
+      <c r="E249" s="7">
+        <v>4</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A250" s="1">
+        <v>3201003</v>
+      </c>
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="7">
+        <v>17</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A251" s="1">
+        <v>3201004</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D251" s="7">
+        <v>2</v>
+      </c>
+      <c r="E251" s="7">
+        <v>7</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A252" s="1">
+        <v>3201005</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="7">
+        <v>2</v>
+      </c>
+      <c r="E252" s="7">
+        <v>6</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A253" s="1">
+        <v>3201006</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="7">
+        <v>2</v>
+      </c>
+      <c r="E253" s="7">
+        <v>6</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A254" s="1">
+        <v>3201007</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" s="7">
+        <v>23</v>
+      </c>
+      <c r="E254" s="7">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G254" s="1">
+        <v>0</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0</v>
+      </c>
+      <c r="I254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A255" s="1">
+        <v>3201008</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="7">
+        <v>23</v>
+      </c>
+      <c r="E255" s="7">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A256" s="1">
+        <v>3201009</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="7">
+        <v>23</v>
+      </c>
+      <c r="E256" s="7">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G256" s="1">
+        <v>0</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0</v>
+      </c>
+      <c r="I256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A257" s="1">
+        <v>3201010</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="7">
+        <v>23</v>
+      </c>
+      <c r="E257" s="7">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G257" s="1">
+        <v>0</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A258" s="1">
+        <v>3201011</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="7">
+        <v>23</v>
+      </c>
+      <c r="E258" s="7">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G258" s="1">
+        <v>0</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A259" s="1">
+        <v>3201012</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" s="7">
+        <v>23</v>
+      </c>
+      <c r="E259" s="7">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G259" s="1">
+        <v>0</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A260" s="1">
+        <v>3201013</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="7">
+        <v>23</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G260" s="1">
+        <v>0</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A261" s="1">
+        <v>3201014</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D261" s="7">
+        <v>23</v>
+      </c>
+      <c r="E261" s="7">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A262" s="1">
+        <v>3201015</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="7">
+        <v>23</v>
+      </c>
+      <c r="E262" s="7">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A263" s="1">
+        <v>3201016</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="7">
+        <v>23</v>
+      </c>
+      <c r="E263" s="7">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A264" s="1">
+        <v>3201017</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="7">
+        <v>23</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G264" s="1">
+        <v>0</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A265" s="1">
+        <v>3201018</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="7">
+        <v>23</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A266" s="1">
+        <v>3201019</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266" s="7">
+        <v>24</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G266" s="1">
+        <v>0</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A267" s="1">
+        <v>3201020</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="7">
+        <v>24</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G267" s="1">
+        <v>0</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A268" s="1">
+        <v>3201021</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="7">
+        <v>25</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0</v>
+      </c>
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A269" s="1">
+        <v>3201022</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0</v>
+      </c>
+      <c r="D269" s="7">
+        <v>26</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A270" s="1">
+        <v>3201023</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="7">
+        <v>28</v>
+      </c>
+      <c r="E270" s="7">
+        <v>0</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A271" s="1">
+        <v>3201024</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D271" s="7">
+        <v>28</v>
+      </c>
+      <c r="E271" s="7">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0</v>
+      </c>
+      <c r="H271" s="1">
+        <v>0</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A272" s="1">
+        <v>3201025</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="7">
+        <v>28</v>
+      </c>
+      <c r="E272" s="7">
+        <v>0</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G272" s="1">
+        <v>0</v>
+      </c>
+      <c r="H272" s="1">
+        <v>0</v>
+      </c>
+      <c r="I272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A273" s="1">
+        <v>3201026</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="7">
+        <v>28</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0</v>
+      </c>
+      <c r="I273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A274" s="1">
+        <v>3201027</v>
+      </c>
+      <c r="B274" s="1">
+        <v>0</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274" s="7">
+        <v>28</v>
+      </c>
+      <c r="E274" s="7">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A275" s="1">
+        <v>3201028</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1</v>
+      </c>
+      <c r="D275" s="7">
+        <v>28</v>
+      </c>
+      <c r="E275" s="7">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A276" s="1">
+        <v>3201029</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" s="7">
+        <v>28</v>
+      </c>
+      <c r="E276" s="7">
+        <v>0</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0</v>
+      </c>
+      <c r="I276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A277" s="1">
+        <v>3201030</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0</v>
+      </c>
+      <c r="D277" s="7">
+        <v>28</v>
+      </c>
+      <c r="E277" s="7">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.75" customHeight="1">
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="4:5" ht="15.75" customHeight="1">
+    <row r="279" spans="1:9" ht="15.75" customHeight="1">
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="4:5" ht="15.75" customHeight="1">
+    <row r="280" spans="1:9" ht="15.75" customHeight="1">
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="4:5" ht="15.75" customHeight="1">
+    <row r="281" spans="1:9" ht="15.75" customHeight="1">
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="4:5" ht="15.75" customHeight="1">
+    <row r="282" spans="1:9" ht="15.75" customHeight="1">
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="4:5" ht="15.75" customHeight="1">
+    <row r="283" spans="1:9" ht="15.75" customHeight="1">
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
     </row>
-    <row r="284" spans="4:5" ht="15.75" customHeight="1">
+    <row r="284" spans="1:9" ht="15.75" customHeight="1">
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="4:5" ht="15.75" customHeight="1">
+    <row r="285" spans="1:9" ht="15.75" customHeight="1">
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="4:5" ht="15.75" customHeight="1">
+    <row r="286" spans="1:9" ht="15.75" customHeight="1">
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="4:5" ht="15.75" customHeight="1">
+    <row r="287" spans="1:9" ht="15.75" customHeight="1">
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
     </row>
-    <row r="288" spans="4:5" ht="15.75" customHeight="1">
+    <row r="288" spans="1:9" ht="15.75" customHeight="1">
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
     </row>
@@ -8406,7 +12128,7 @@
       <c r="E1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -8416,7 +12138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8435,10 +12159,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -8446,10 +12170,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D2" s="1">
         <v>10201016</v>
@@ -8460,10 +12184,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D3" s="1">
         <v>10201025</v>
@@ -8474,25 +12198,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>-50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10201035</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10301006</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10301018</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10301029</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -9585,7 +13339,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
